--- a/tests/bringup/roc_tests/test_list .xlsx
+++ b/tests/bringup/roc_tests/test_list .xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="367">
   <si>
     <t>Serial No.</t>
   </si>
@@ -1067,9 +1067,6 @@
   </si>
   <si>
     <t>Total Tests</t>
-  </si>
-  <si>
-    <t>Sim f129</t>
   </si>
   <si>
     <t>Block</t>
@@ -1156,6 +1153,15 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Require a change in enqueue default working frame</t>
+  </si>
+  <si>
+    <t>SP issues. Under CDC investigation.</t>
+  </si>
+  <si>
+    <t>Sim f129 - Feb 9th, 2015</t>
   </si>
 </sst>
 </file>
@@ -5426,8 +5432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5448,7 +5454,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="6" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
       <c r="A1" s="85" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B1" s="85" t="s">
         <v>0</v>
@@ -5460,10 +5466,10 @@
       <c r="E1" s="83"/>
       <c r="F1" s="84"/>
       <c r="G1" s="81" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1" s="79" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="I1" s="80"/>
       <c r="J1" s="78"/>
@@ -5471,13 +5477,13 @@
     </row>
     <row r="2" spans="1:12" ht="12.95" customHeight="1">
       <c r="A2" s="91" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B2" s="47">
         <v>1</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D2" s="49"/>
       <c r="E2" s="49"/>
@@ -5485,7 +5491,9 @@
       <c r="G2" s="51" t="s">
         <v>314</v>
       </c>
-      <c r="H2" s="71"/>
+      <c r="H2" s="71" t="s">
+        <v>342</v>
+      </c>
       <c r="I2" s="72"/>
       <c r="J2" s="70"/>
     </row>
@@ -5495,13 +5503,15 @@
         <v>2</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D3" s="54"/>
       <c r="E3" s="54"/>
       <c r="F3" s="55"/>
       <c r="G3" s="56"/>
-      <c r="H3" s="73"/>
+      <c r="H3" s="73" t="s">
+        <v>342</v>
+      </c>
       <c r="I3" s="56"/>
       <c r="J3" s="70"/>
     </row>
@@ -5511,7 +5521,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D4" s="54"/>
       <c r="E4" s="54"/>
@@ -5519,7 +5529,9 @@
       <c r="G4" s="57" t="s">
         <v>313</v>
       </c>
-      <c r="H4" s="73"/>
+      <c r="H4" s="73" t="s">
+        <v>342</v>
+      </c>
       <c r="I4" s="56"/>
       <c r="J4" s="70"/>
     </row>
@@ -5529,13 +5541,15 @@
         <v>4</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D5" s="54"/>
       <c r="E5" s="54"/>
       <c r="F5" s="55"/>
       <c r="G5" s="58"/>
-      <c r="H5" s="73"/>
+      <c r="H5" s="73" t="s">
+        <v>342</v>
+      </c>
       <c r="I5" s="56"/>
       <c r="J5" s="70"/>
     </row>
@@ -5545,14 +5559,18 @@
         <v>5</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D6" s="54"/>
       <c r="E6" s="54"/>
       <c r="F6" s="55"/>
       <c r="G6" s="58"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="56"/>
+      <c r="H6" s="73" t="s">
+        <v>342</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>364</v>
+      </c>
       <c r="J6" s="70"/>
     </row>
     <row r="7" spans="1:12" ht="12.95" customHeight="1">
@@ -5561,35 +5579,41 @@
         <v>6</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
       <c r="F7" s="55"/>
       <c r="G7" s="58"/>
-      <c r="H7" s="73"/>
+      <c r="H7" s="73" t="s">
+        <v>342</v>
+      </c>
       <c r="I7" s="56"/>
       <c r="J7" s="70"/>
     </row>
-    <row r="8" spans="1:12" ht="13.5" thickBot="1">
+    <row r="8" spans="1:12" ht="39" thickBot="1">
       <c r="A8" s="93"/>
       <c r="B8" s="59">
         <v>7</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D8" s="61"/>
       <c r="E8" s="61"/>
       <c r="F8" s="62"/>
       <c r="G8" s="63"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="75"/>
+      <c r="H8" s="74" t="s">
+        <v>343</v>
+      </c>
+      <c r="I8" s="75" t="s">
+        <v>365</v>
+      </c>
       <c r="J8" s="70"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="91" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B9" s="47">
         <v>1</v>
@@ -5601,7 +5625,9 @@
       <c r="E9" s="49"/>
       <c r="F9" s="50"/>
       <c r="G9" s="64"/>
-      <c r="H9" s="71"/>
+      <c r="H9" s="71" t="s">
+        <v>342</v>
+      </c>
       <c r="I9" s="72"/>
       <c r="J9" s="70"/>
     </row>
@@ -5617,7 +5643,9 @@
       <c r="E10" s="54"/>
       <c r="F10" s="55"/>
       <c r="G10" s="58"/>
-      <c r="H10" s="73"/>
+      <c r="H10" s="73" t="s">
+        <v>342</v>
+      </c>
       <c r="I10" s="56"/>
       <c r="J10" s="70"/>
     </row>
@@ -5633,7 +5661,9 @@
       <c r="E11" s="54"/>
       <c r="F11" s="55"/>
       <c r="G11" s="58"/>
-      <c r="H11" s="73"/>
+      <c r="H11" s="73" t="s">
+        <v>342</v>
+      </c>
       <c r="I11" s="56"/>
       <c r="J11" s="70"/>
     </row>
@@ -5649,7 +5679,9 @@
       <c r="E12" s="54"/>
       <c r="F12" s="55"/>
       <c r="G12" s="58"/>
-      <c r="H12" s="73"/>
+      <c r="H12" s="73" t="s">
+        <v>342</v>
+      </c>
       <c r="I12" s="56"/>
       <c r="J12" s="70"/>
     </row>
@@ -5665,7 +5697,9 @@
       <c r="E13" s="54"/>
       <c r="F13" s="55"/>
       <c r="G13" s="58"/>
-      <c r="H13" s="73"/>
+      <c r="H13" s="73" t="s">
+        <v>342</v>
+      </c>
       <c r="I13" s="56"/>
       <c r="J13" s="70"/>
     </row>
@@ -5681,7 +5715,9 @@
       <c r="E14" s="54"/>
       <c r="F14" s="55"/>
       <c r="G14" s="58"/>
-      <c r="H14" s="73"/>
+      <c r="H14" s="73" t="s">
+        <v>342</v>
+      </c>
       <c r="I14" s="56"/>
       <c r="J14" s="70"/>
     </row>
@@ -5697,13 +5733,15 @@
       <c r="E15" s="61"/>
       <c r="F15" s="62"/>
       <c r="G15" s="63"/>
-      <c r="H15" s="74"/>
+      <c r="H15" s="74" t="s">
+        <v>342</v>
+      </c>
       <c r="I15" s="75"/>
       <c r="J15" s="70"/>
     </row>
     <row r="16" spans="1:12" ht="48" thickBot="1">
       <c r="A16" s="94" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B16" s="65">
         <v>1</v>
@@ -5715,13 +5753,15 @@
       <c r="E16" s="67"/>
       <c r="F16" s="68"/>
       <c r="G16" s="69"/>
-      <c r="H16" s="76"/>
+      <c r="H16" s="76" t="s">
+        <v>342</v>
+      </c>
       <c r="I16" s="77"/>
       <c r="J16" s="70"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1">
       <c r="A17" s="95" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B17" s="47">
         <v>1</v>
@@ -5803,7 +5843,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="95" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B22" s="47">
         <v>1</v>
@@ -5815,7 +5855,9 @@
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
       <c r="G22" s="64"/>
-      <c r="H22" s="71"/>
+      <c r="H22" s="71" t="s">
+        <v>342</v>
+      </c>
       <c r="I22" s="72"/>
       <c r="J22" s="70"/>
     </row>
@@ -5831,7 +5873,9 @@
       <c r="E23" s="54"/>
       <c r="F23" s="55"/>
       <c r="G23" s="58"/>
-      <c r="H23" s="73"/>
+      <c r="H23" s="73" t="s">
+        <v>342</v>
+      </c>
       <c r="I23" s="56"/>
       <c r="J23" s="70"/>
     </row>
@@ -5847,13 +5891,15 @@
       <c r="E24" s="61"/>
       <c r="F24" s="62"/>
       <c r="G24" s="63"/>
-      <c r="H24" s="74"/>
+      <c r="H24" s="74" t="s">
+        <v>342</v>
+      </c>
       <c r="I24" s="75"/>
       <c r="J24" s="70"/>
     </row>
     <row r="25" spans="1:10" ht="95.25" thickBot="1">
       <c r="A25" s="94" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B25" s="65">
         <v>1</v>
@@ -5865,13 +5911,15 @@
       <c r="E25" s="67"/>
       <c r="F25" s="68"/>
       <c r="G25" s="69"/>
-      <c r="H25" s="76"/>
+      <c r="H25" s="76" t="s">
+        <v>342</v>
+      </c>
       <c r="I25" s="77"/>
       <c r="J25" s="70"/>
     </row>
     <row r="26" spans="1:10" ht="48" thickBot="1">
       <c r="A26" s="94" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B26" s="65">
         <v>1</v>
@@ -5883,13 +5931,15 @@
       <c r="E26" s="67"/>
       <c r="F26" s="68"/>
       <c r="G26" s="69"/>
-      <c r="H26" s="76"/>
+      <c r="H26" s="76" t="s">
+        <v>342</v>
+      </c>
       <c r="I26" s="77"/>
       <c r="J26" s="70"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="98" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B27" s="47">
         <v>1</v>
@@ -5901,7 +5951,9 @@
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
       <c r="G27" s="64"/>
-      <c r="H27" s="71"/>
+      <c r="H27" s="71" t="s">
+        <v>343</v>
+      </c>
       <c r="I27" s="72"/>
       <c r="J27" s="70"/>
     </row>
@@ -5917,7 +5969,9 @@
       <c r="E28" s="54"/>
       <c r="F28" s="55"/>
       <c r="G28" s="58"/>
-      <c r="H28" s="73"/>
+      <c r="H28" s="73" t="s">
+        <v>342</v>
+      </c>
       <c r="I28" s="56"/>
       <c r="J28" s="70"/>
     </row>
@@ -5933,7 +5987,9 @@
       <c r="E29" s="54"/>
       <c r="F29" s="55"/>
       <c r="G29" s="58"/>
-      <c r="H29" s="73"/>
+      <c r="H29" s="73" t="s">
+        <v>342</v>
+      </c>
       <c r="I29" s="56"/>
       <c r="J29" s="70"/>
     </row>
@@ -5949,7 +6005,9 @@
       <c r="E30" s="54"/>
       <c r="F30" s="55"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="73"/>
+      <c r="H30" s="73" t="s">
+        <v>342</v>
+      </c>
       <c r="I30" s="56"/>
       <c r="J30" s="70"/>
     </row>
@@ -5965,13 +6023,15 @@
       <c r="E31" s="61"/>
       <c r="F31" s="62"/>
       <c r="G31" s="63"/>
-      <c r="H31" s="74"/>
+      <c r="H31" s="74" t="s">
+        <v>342</v>
+      </c>
       <c r="I31" s="75"/>
       <c r="J31" s="70"/>
     </row>
     <row r="32" spans="1:10" ht="63.75" thickBot="1">
       <c r="A32" s="94" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B32" s="65">
         <v>1</v>
@@ -5992,7 +6052,7 @@
       </c>
       <c r="I35" s="87">
         <f>COUNTIF($H$1:$H$32, "=PASS")</f>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="8:9" ht="13.5" thickBot="1">
@@ -6001,7 +6061,7 @@
       </c>
       <c r="I36" s="87">
         <f>COUNTIF($H$1:$H$32, "=FAIL")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="8:9" ht="13.5" thickBot="1">
@@ -6010,16 +6070,16 @@
       </c>
       <c r="I37" s="87">
         <f>I35+I36</f>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="8:9" ht="13.5" thickBot="1">
       <c r="H38" s="89" t="s">
-        <v>363</v>
-      </c>
-      <c r="I38" s="90" t="e">
+        <v>362</v>
+      </c>
+      <c r="I38" s="90">
         <f>I35/I37</f>
-        <v>#DIV/0!</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="68" spans="1:1">
